--- a/GNSS_INS_STD.xlsx
+++ b/GNSS_INS_STD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="0" windowWidth="16560" windowHeight="8280" activeTab="1"/>
+    <workbookView xWindow="390888" yWindow="0" windowWidth="16560" windowHeight="8280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,13 +418,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>0.44212521111475528</v>
+        <v>0.43991728098608412</v>
       </c>
       <c r="C2" s="1">
-        <v>0.13885901546189389</v>
+        <v>0.13816402310378678</v>
       </c>
       <c r="D2" s="1">
-        <v>97.460646758675139</v>
+        <v>97.436629633716507</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -432,13 +432,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>3.0976236819158193E-4</v>
+        <v>3.0854615538377614E-4</v>
       </c>
       <c r="C3" s="1">
-        <v>2.4036308362421137E-4</v>
+        <v>2.3994301304863851E-4</v>
       </c>
       <c r="D3" s="1">
-        <v>31.924176125264935</v>
+        <v>28.718947884694128</v>
       </c>
     </row>
   </sheetData>
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>5.4311838634211895</v>
+        <v>5.5400290328483974</v>
       </c>
       <c r="C2" s="1">
-        <v>5.5882070760676639</v>
+        <v>5.5548867783861064</v>
       </c>
       <c r="D2" s="1">
-        <v>5.5882070760676639</v>
+        <v>5.5548867783861064</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>3.4499766215312828</v>
+        <v>3.7073181349017408</v>
       </c>
       <c r="C3" s="1">
-        <v>2.6962217610050301</v>
+        <v>2.6835806738898258</v>
       </c>
       <c r="D3" s="1">
-        <v>1.7888751373900063</v>
+        <v>2.0823244281402467</v>
       </c>
     </row>
   </sheetData>
